--- a/data/frailty/hospitalizations_age-groups_week_2012-13_hospitalisations_groupe-age_semaine-eng.xlsx
+++ b/data/frailty/hospitalizations_age-groups_week_2012-13_hospitalisations_groupe-age_semaine-eng.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-2780" yWindow="-21000" windowWidth="33600" windowHeight="20560" activeTab="1"/>
+    <workbookView xWindow="22740" yWindow="2460" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="size-distrib-ages.csv" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
   <si>
     <t>Influenza Season and Epidemiological Week</t>
   </si>
@@ -107,16 +107,20 @@
   <si>
     <t>RATE HOSP per 100,000</t>
   </si>
+  <si>
+    <t>Average hosp rate per 100,000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0000%"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -291,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +386,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -534,7 +544,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -640,8 +650,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -655,7 +667,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="74"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="74" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -672,16 +684,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="107">
     <cellStyle name="20% - Accent1 2" xfId="1"/>
     <cellStyle name="20% - Accent2 2" xfId="2"/>
     <cellStyle name="20% - Accent3 2" xfId="3"/>
@@ -728,6 +747,7 @@
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Good 2" xfId="29"/>
     <cellStyle name="Heading 1 2" xfId="30"/>
     <cellStyle name="Heading 2 2" xfId="31"/>
@@ -750,6 +770,7 @@
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Input 2" xfId="34"/>
     <cellStyle name="Linked Cell 2" xfId="35"/>
     <cellStyle name="Neutral 2" xfId="36"/>
@@ -825,7 +846,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'12-13Hospitalization_EN'!$P$10:$U$10</c:f>
+              <c:f>'12-13Hospitalization_EN'!$P$13:$U$13</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -851,7 +872,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'12-13Hospitalization_EN'!$P$11:$U$11</c:f>
+              <c:f>'12-13Hospitalization_EN'!$P$14:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -886,11 +907,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2108323720"/>
-        <c:axId val="-2139775992"/>
+        <c:axId val="2115260760"/>
+        <c:axId val="2108316088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2108323720"/>
+        <c:axId val="2115260760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,7 +920,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139775992"/>
+        <c:crossAx val="2108316088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -907,7 +928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139775992"/>
+        <c:axId val="2108316088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,7 +939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108323720"/>
+        <c:crossAx val="2115260760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -941,13 +962,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>50321</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>144013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>596661</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>11742</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1611,7 +1632,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="G15:O17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -3755,10 +3776,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:U58"/>
+  <dimension ref="A4:U61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13:U13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3767,274 +3788,159 @@
     <col min="2" max="4" width="8.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="12" t="s">
+    <row r="4" spans="1:21">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="B2" s="13">
+      <c r="I4" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="B5" s="13">
         <v>1565869.9565924203</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C5" s="13">
         <v>4064495.5275015603</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D5" s="13">
         <v>2377378.9027690697</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E5" s="13">
         <v>11663092.626689322</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F5" s="13">
         <v>10164129.249030823</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G5" s="13">
         <v>5165033.7374167964</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
+      <c r="I5" s="22">
+        <f>SUM(B7:G7)/SUM(B5:G5)*100000</f>
+        <v>14.568571428571431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="16">
-        <f>B4/B2*100000</f>
+      <c r="B6" s="20">
+        <f>B7/B5*100000</f>
         <v>49.301667533106873</v>
       </c>
-      <c r="C3" s="16">
-        <f t="shared" ref="C3:G3" si="0">C4/C2*100000</f>
+      <c r="C6" s="20">
+        <f t="shared" ref="C6:G6" si="0">C7/C5*100000</f>
         <v>6.4952710173673243</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D6" s="20">
         <f t="shared" si="0"/>
         <v>2.0190302834811753</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E6" s="20">
         <f t="shared" si="0"/>
         <v>3.9526394478345077</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F6" s="20">
         <f t="shared" si="0"/>
         <v>8.5791903923609354</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G6" s="20">
         <f t="shared" si="0"/>
         <v>51.92608870240133</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="14">
-        <f>SUM(B6:B58)</f>
+      <c r="B7" s="14">
+        <f>SUM(B9:B61)</f>
         <v>772</v>
       </c>
-      <c r="C4" s="14">
-        <f t="shared" ref="C4:G4" si="1">SUM(C6:C58)</f>
+      <c r="C7" s="14">
+        <f t="shared" ref="C7:G7" si="1">SUM(C9:C61)</f>
         <v>264</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D7" s="14">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E7" s="14">
         <f t="shared" si="1"/>
         <v>461</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F7" s="14">
         <f t="shared" si="1"/>
         <v>872</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G7" s="14">
         <f t="shared" si="1"/>
         <v>2682</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="28">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="8" spans="1:21" ht="28">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="2">
-        <v>201235</v>
-      </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="2">
-        <v>201236</v>
-      </c>
-      <c r="B7" s="15">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="2">
-        <v>201237</v>
-      </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="2">
-        <v>201238</v>
+        <v>201235</v>
       </c>
       <c r="B9" s="15">
         <v>0</v>
@@ -4052,16 +3958,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -4075,7 +3981,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="2">
-        <v>201239</v>
+        <v>201236</v>
       </c>
       <c r="B10" s="15">
         <v>0</v>
@@ -4093,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -4105,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -4113,411 +4019,411 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="14" t="str">
-        <f>B1</f>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="2">
+        <v>201237</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="2">
+        <v>201238</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="2">
+        <v>201239</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14" t="str">
+        <f>B4</f>
         <v>0-4</v>
       </c>
-      <c r="Q10" s="14" t="str">
-        <f t="shared" ref="Q10:U10" si="2">C1</f>
+      <c r="Q13" s="14" t="str">
+        <f t="shared" ref="Q13:U13" si="2">C4</f>
         <v>5-14</v>
       </c>
-      <c r="R10" s="14" t="str">
+      <c r="R13" s="14" t="str">
         <f t="shared" si="2"/>
         <v>15-19</v>
       </c>
-      <c r="S10" s="14" t="str">
+      <c r="S13" s="14" t="str">
         <f t="shared" si="2"/>
         <v>20-44</v>
       </c>
-      <c r="T10" s="14" t="str">
+      <c r="T13" s="14" t="str">
         <f t="shared" si="2"/>
         <v>45-64</v>
       </c>
-      <c r="U10" s="14" t="str">
+      <c r="U13" s="14" t="str">
         <f t="shared" si="2"/>
         <v>65+</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="2">
+    <row r="14" spans="1:21">
+      <c r="A14" s="2">
         <v>201240</v>
       </c>
-      <c r="B11" s="15">
-        <v>0</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="B14" s="15">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
         <v>1</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F14" s="15">
         <v>1</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G14" s="15">
         <v>3</v>
       </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>3</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J14" s="3">
         <v>2</v>
       </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="17">
-        <f>B3</f>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="16">
+        <f>B6</f>
         <v>49.301667533106873</v>
       </c>
-      <c r="Q11" s="17">
-        <f t="shared" ref="Q11:U11" si="3">C3</f>
+      <c r="Q14" s="16">
+        <f t="shared" ref="Q14:U14" si="3">C6</f>
         <v>6.4952710173673243</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R14" s="16">
         <f t="shared" si="3"/>
         <v>2.0190302834811753</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S14" s="16">
         <f t="shared" si="3"/>
         <v>3.9526394478345077</v>
       </c>
-      <c r="T11" s="17">
+      <c r="T14" s="16">
         <f t="shared" si="3"/>
         <v>8.5791903923609354</v>
       </c>
-      <c r="U11" s="17">
+      <c r="U14" s="16">
         <f t="shared" si="3"/>
         <v>51.92608870240133</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="2">
+    <row r="15" spans="1:21">
+      <c r="A15" s="2">
         <v>201241</v>
       </c>
-      <c r="B12" s="15">
-        <v>0</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="B15" s="15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
         <v>1</v>
       </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
         <v>2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="18">
-        <f>P11/100000</f>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="17">
+        <f>P14/100000</f>
         <v>4.9301667533106872E-4</v>
       </c>
-      <c r="Q12" s="18">
-        <f t="shared" ref="Q12:U12" si="4">Q11/100000</f>
+      <c r="Q15" s="17">
+        <f t="shared" ref="Q15:U15" si="4">Q14/100000</f>
         <v>6.4952710173673243E-5</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R15" s="17">
         <f t="shared" si="4"/>
         <v>2.0190302834811754E-5</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S15" s="17">
         <f t="shared" si="4"/>
         <v>3.9526394478345077E-5</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T15" s="17">
         <f t="shared" si="4"/>
         <v>8.579190392360935E-5</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U15" s="17">
         <f t="shared" si="4"/>
         <v>5.1926088702401328E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="2">
+    <row r="16" spans="1:21">
+      <c r="A16" s="2">
         <v>201242</v>
       </c>
-      <c r="B13" s="15">
-        <v>0</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
+      <c r="B16" s="15">
+        <v>0</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
         <v>2</v>
       </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
         <v>1</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K16" s="3">
         <v>1</v>
       </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="19">
-        <f>P12</f>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="18">
+        <f>P15</f>
         <v>4.9301667533106872E-4</v>
       </c>
-      <c r="Q13" s="19">
-        <f t="shared" ref="Q13:U13" si="5">Q12</f>
+      <c r="Q16" s="18">
+        <f t="shared" ref="Q16:U16" si="5">Q15</f>
         <v>6.4952710173673243E-5</v>
       </c>
-      <c r="R13" s="19">
+      <c r="R16" s="18">
         <f t="shared" si="5"/>
         <v>2.0190302834811754E-5</v>
       </c>
-      <c r="S13" s="19">
+      <c r="S16" s="18">
         <f t="shared" si="5"/>
         <v>3.9526394478345077E-5</v>
       </c>
-      <c r="T13" s="19">
+      <c r="T16" s="18">
         <f t="shared" si="5"/>
         <v>8.579190392360935E-5</v>
       </c>
-      <c r="U13" s="19">
+      <c r="U16" s="18">
         <f t="shared" si="5"/>
         <v>5.1926088702401328E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="2">
-        <v>201243</v>
-      </c>
-      <c r="B14" s="15">
-        <v>0</v>
-      </c>
-      <c r="C14" s="15">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="2">
-        <v>201244</v>
-      </c>
-      <c r="B15" s="15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="15">
-        <v>3</v>
-      </c>
-      <c r="G15" s="15">
-        <v>14</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
-        <v>17</v>
-      </c>
-      <c r="K15" s="3">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="2">
-        <v>201245</v>
-      </c>
-      <c r="B16" s="15">
-        <v>5</v>
-      </c>
-      <c r="C16" s="15">
-        <v>0</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15">
-        <v>5</v>
-      </c>
-      <c r="G16" s="15">
-        <v>5</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>2</v>
-      </c>
-      <c r="J16" s="3">
-        <v>8</v>
-      </c>
-      <c r="K16" s="3">
-        <v>4</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>2</v>
-      </c>
-    </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2">
-        <v>201246</v>
+        <v>201243</v>
       </c>
       <c r="B17" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="15">
         <v>1</v>
       </c>
       <c r="D17" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>10</v>
       </c>
       <c r="K17" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2">
-        <v>201247</v>
+        <v>201244</v>
       </c>
       <c r="B18" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>2</v>
+      </c>
+      <c r="F18" s="15">
         <v>3</v>
       </c>
-      <c r="D18" s="15">
-        <v>2</v>
-      </c>
-      <c r="E18" s="15">
-        <v>5</v>
-      </c>
-      <c r="F18" s="15">
-        <v>6</v>
-      </c>
       <c r="G18" s="15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -4526,10 +4432,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K18" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -4540,78 +4446,78 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2">
-        <v>201248</v>
+        <v>201245</v>
       </c>
       <c r="B19" s="15">
         <v>5</v>
       </c>
       <c r="C19" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="15">
         <v>0</v>
       </c>
       <c r="E19" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" s="15">
         <v>5</v>
       </c>
       <c r="G19" s="15">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="K19" s="3">
+        <v>4</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
         <v>2</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2">
-        <v>201249</v>
+        <v>201246</v>
       </c>
       <c r="B20" s="15">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15">
+        <v>3</v>
+      </c>
+      <c r="F20" s="15">
+        <v>2</v>
+      </c>
+      <c r="G20" s="15">
+        <v>9</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
         <v>10</v>
       </c>
-      <c r="D20" s="15">
-        <v>3</v>
-      </c>
-      <c r="E20" s="15">
-        <v>18</v>
-      </c>
-      <c r="F20" s="15">
-        <v>32</v>
-      </c>
-      <c r="G20" s="15">
-        <v>57</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2</v>
-      </c>
-      <c r="J20" s="3">
-        <v>76</v>
-      </c>
       <c r="K20" s="3">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -4622,365 +4528,365 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2">
-        <v>201250</v>
+        <v>201247</v>
       </c>
       <c r="B21" s="15">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C21" s="15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D21" s="15">
         <v>2</v>
       </c>
       <c r="E21" s="15">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F21" s="15">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G21" s="15">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="3">
-        <v>4</v>
-      </c>
       <c r="J21" s="3">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="K21" s="3">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2">
-        <v>201251</v>
+        <v>201248</v>
       </c>
       <c r="B22" s="15">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C22" s="15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D22" s="15">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>3</v>
+      </c>
+      <c r="F22" s="15">
+        <v>5</v>
+      </c>
+      <c r="G22" s="15">
+        <v>13</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>25</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>1</v>
-      </c>
-      <c r="E22" s="15">
-        <v>9</v>
-      </c>
-      <c r="F22" s="15">
-        <v>21</v>
-      </c>
-      <c r="G22" s="15">
-        <v>37</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>76</v>
-      </c>
-      <c r="K22" s="3">
-        <v>9</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2">
-        <v>201252</v>
+        <v>201249</v>
       </c>
       <c r="B23" s="15">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C23" s="15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D23" s="15">
+        <v>3</v>
+      </c>
+      <c r="E23" s="15">
+        <v>18</v>
+      </c>
+      <c r="F23" s="15">
+        <v>32</v>
+      </c>
+      <c r="G23" s="15">
+        <v>57</v>
+      </c>
+      <c r="H23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="15">
-        <v>24</v>
-      </c>
-      <c r="F23" s="15">
-        <v>52</v>
-      </c>
-      <c r="G23" s="15">
-        <v>174</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>76</v>
+      </c>
+      <c r="K23" s="3">
+        <v>60</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>3</v>
-      </c>
-      <c r="I23" s="3">
-        <v>9</v>
-      </c>
-      <c r="J23" s="3">
-        <v>172</v>
-      </c>
-      <c r="K23" s="3">
-        <v>120</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2">
-        <v>201301</v>
+        <v>201250</v>
       </c>
       <c r="B24" s="15">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C24" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="15">
         <v>2</v>
       </c>
       <c r="E24" s="15">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F24" s="15">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="G24" s="15">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J24" s="3">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="K24" s="3">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2">
-        <v>201302</v>
+        <v>201251</v>
       </c>
       <c r="B25" s="15">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="C25" s="15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" s="15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E25" s="15">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="F25" s="15">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="G25" s="15">
-        <v>496</v>
+        <v>37</v>
       </c>
       <c r="H25" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="3">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="J25" s="3">
-        <v>321</v>
+        <v>76</v>
       </c>
       <c r="K25" s="3">
-        <v>468</v>
+        <v>9</v>
       </c>
       <c r="L25" s="3">
         <v>0</v>
       </c>
       <c r="M25" s="3">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2">
-        <v>201303</v>
+        <v>201252</v>
       </c>
       <c r="B26" s="15">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C26" s="15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="15">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15">
+        <v>24</v>
+      </c>
+      <c r="F26" s="15">
+        <v>52</v>
+      </c>
+      <c r="G26" s="15">
+        <v>174</v>
+      </c>
+      <c r="H26" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="15">
-        <v>43</v>
-      </c>
-      <c r="F26" s="15">
-        <v>111</v>
-      </c>
-      <c r="G26" s="15">
-        <v>363</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
       <c r="I26" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J26" s="3">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="K26" s="3">
-        <v>335</v>
+        <v>120</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2">
-        <v>201304</v>
+        <v>201301</v>
       </c>
       <c r="B27" s="15">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D27" s="15">
+        <v>2</v>
+      </c>
+      <c r="E27" s="15">
+        <v>28</v>
+      </c>
+      <c r="F27" s="15">
+        <v>49</v>
+      </c>
+      <c r="G27" s="15">
+        <v>164</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>11</v>
+      </c>
+      <c r="J27" s="3">
+        <v>130</v>
+      </c>
+      <c r="K27" s="3">
+        <v>138</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>4</v>
-      </c>
-      <c r="E27" s="15">
-        <v>34</v>
-      </c>
-      <c r="F27" s="15">
-        <v>76</v>
-      </c>
-      <c r="G27" s="15">
-        <v>278</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>31</v>
-      </c>
-      <c r="J27" s="3">
-        <v>228</v>
-      </c>
-      <c r="K27" s="3">
-        <v>176</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2">
-        <v>201305</v>
+        <v>201302</v>
       </c>
       <c r="B28" s="15">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C28" s="15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E28" s="15">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F28" s="15">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="G28" s="15">
-        <v>125</v>
+        <v>496</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
       </c>
       <c r="I28" s="3">
+        <v>25</v>
+      </c>
+      <c r="J28" s="3">
+        <v>321</v>
+      </c>
+      <c r="K28" s="3">
+        <v>468</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
         <v>18</v>
-      </c>
-      <c r="J28" s="3">
-        <v>72</v>
-      </c>
-      <c r="K28" s="3">
-        <v>125</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3">
-        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2">
-        <v>201306</v>
+        <v>201303</v>
       </c>
       <c r="B29" s="15">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C29" s="15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" s="15">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F29" s="15">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="G29" s="15">
-        <v>123</v>
+        <v>363</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J29" s="3">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="K29" s="3">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -4991,871 +4897,871 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2">
-        <v>201307</v>
+        <v>201304</v>
       </c>
       <c r="B30" s="15">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C30" s="15">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D30" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30" s="15">
+        <v>34</v>
+      </c>
+      <c r="F30" s="15">
+        <v>76</v>
+      </c>
+      <c r="G30" s="15">
+        <v>278</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>31</v>
+      </c>
+      <c r="J30" s="3">
+        <v>228</v>
+      </c>
+      <c r="K30" s="3">
+        <v>176</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
         <v>14</v>
-      </c>
-      <c r="F30" s="15">
-        <v>23</v>
-      </c>
-      <c r="G30" s="15">
-        <v>62</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>13</v>
-      </c>
-      <c r="J30" s="3">
-        <v>43</v>
-      </c>
-      <c r="K30" s="3">
-        <v>55</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
-      <c r="M30" s="3">
-        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2">
-        <v>201308</v>
+        <v>201305</v>
       </c>
       <c r="B31" s="15">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C31" s="15">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D31" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F31" s="15">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G31" s="15">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="H31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J31" s="3">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="K31" s="3">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L31" s="3">
         <v>0</v>
       </c>
       <c r="M31" s="3">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2">
-        <v>201309</v>
+        <v>201306</v>
       </c>
       <c r="B32" s="15">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C32" s="15">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D32" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32" s="15">
+        <v>21</v>
+      </c>
+      <c r="F32" s="15">
+        <v>36</v>
+      </c>
+      <c r="G32" s="15">
+        <v>123</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>20</v>
+      </c>
+      <c r="J32" s="3">
+        <v>68</v>
+      </c>
+      <c r="K32" s="3">
+        <v>137</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>13</v>
-      </c>
-      <c r="F32" s="15">
-        <v>19</v>
-      </c>
-      <c r="G32" s="15">
-        <v>50</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>7</v>
-      </c>
-      <c r="J32" s="3">
-        <v>29</v>
-      </c>
-      <c r="K32" s="3">
-        <v>50</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2">
-        <v>201310</v>
+        <v>201307</v>
       </c>
       <c r="B33" s="15">
+        <v>16</v>
+      </c>
+      <c r="C33" s="15">
+        <v>2</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0</v>
+      </c>
+      <c r="E33" s="15">
         <v>14</v>
       </c>
-      <c r="C33" s="15">
-        <v>10</v>
-      </c>
-      <c r="D33" s="15">
-        <v>2</v>
-      </c>
-      <c r="E33" s="15">
-        <v>11</v>
-      </c>
       <c r="F33" s="15">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G33" s="15">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J33" s="3">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="K33" s="3">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2">
-        <v>201311</v>
+        <v>201308</v>
       </c>
       <c r="B34" s="15">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C34" s="15">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="15">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F34" s="15">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G34" s="15">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J34" s="3">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="K34" s="3">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="L34" s="3">
         <v>0</v>
       </c>
       <c r="M34" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="2">
-        <v>201312</v>
+        <v>201309</v>
       </c>
       <c r="B35" s="15">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C35" s="15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D35" s="15">
         <v>1</v>
       </c>
       <c r="E35" s="15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F35" s="15">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G35" s="15">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J35" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K35" s="3">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2">
-        <v>201313</v>
+        <v>201310</v>
       </c>
       <c r="B36" s="15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C36" s="15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D36" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F36" s="15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G36" s="15">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
       </c>
       <c r="I36" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J36" s="3">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K36" s="3">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
       </c>
       <c r="M36" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2">
-        <v>201314</v>
+        <v>201311</v>
       </c>
       <c r="B37" s="15">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C37" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37" s="15">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F37" s="15">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G37" s="15">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J37" s="3">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K37" s="3">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L37" s="3">
         <v>0</v>
       </c>
       <c r="M37" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="2">
-        <v>201315</v>
+        <v>201312</v>
       </c>
       <c r="B38" s="15">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C38" s="15">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D38" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="15">
+        <v>16</v>
+      </c>
+      <c r="F38" s="15">
+        <v>16</v>
+      </c>
+      <c r="G38" s="15">
+        <v>41</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
         <v>9</v>
       </c>
-      <c r="F38" s="15">
-        <v>23</v>
-      </c>
-      <c r="G38" s="15">
-        <v>40</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
-        <v>8</v>
-      </c>
       <c r="J38" s="3">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K38" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L38" s="3">
         <v>0</v>
       </c>
       <c r="M38" s="3">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="2">
-        <v>201316</v>
+        <v>201313</v>
       </c>
       <c r="B39" s="15">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C39" s="15">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D39" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F39" s="15">
+        <v>12</v>
+      </c>
+      <c r="G39" s="15">
+        <v>36</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>7</v>
+      </c>
+      <c r="J39" s="3">
+        <v>24</v>
+      </c>
+      <c r="K39" s="3">
         <v>23</v>
       </c>
-      <c r="G39" s="15">
-        <v>51</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3">
-        <v>12</v>
-      </c>
-      <c r="J39" s="3">
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
         <v>28</v>
-      </c>
-      <c r="K39" s="3">
-        <v>44</v>
-      </c>
-      <c r="L39" s="3">
-        <v>0</v>
-      </c>
-      <c r="M39" s="3">
-        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="2">
-        <v>201317</v>
+        <v>201314</v>
       </c>
       <c r="B40" s="15">
+        <v>39</v>
+      </c>
+      <c r="C40" s="15">
+        <v>10</v>
+      </c>
+      <c r="D40" s="15">
+        <v>2</v>
+      </c>
+      <c r="E40" s="15">
+        <v>14</v>
+      </c>
+      <c r="F40" s="15">
+        <v>19</v>
+      </c>
+      <c r="G40" s="15">
+        <v>48</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>14</v>
+      </c>
+      <c r="J40" s="3">
         <v>27</v>
       </c>
-      <c r="C40" s="15">
-        <v>17</v>
-      </c>
-      <c r="D40" s="15">
-        <v>1</v>
-      </c>
-      <c r="E40" s="15">
-        <v>12</v>
-      </c>
-      <c r="F40" s="15">
-        <v>14</v>
-      </c>
-      <c r="G40" s="15">
-        <v>49</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
-        <v>11</v>
-      </c>
-      <c r="J40" s="3">
-        <v>35</v>
-      </c>
       <c r="K40" s="3">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
       </c>
       <c r="M40" s="3">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2">
-        <v>201318</v>
+        <v>201315</v>
       </c>
       <c r="B41" s="15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C41" s="15">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D41" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F41" s="15">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G41" s="15">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J41" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K41" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="2">
-        <v>201319</v>
+        <v>201316</v>
       </c>
       <c r="B42" s="15">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C42" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D42" s="15">
         <v>0</v>
       </c>
       <c r="E42" s="15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F42" s="15">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G42" s="15">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J42" s="3">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="K42" s="3">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
       <c r="M42" s="3">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="2">
-        <v>201320</v>
+        <v>201317</v>
       </c>
       <c r="B43" s="15">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C43" s="15">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D43" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="15">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F43" s="15">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G43" s="15">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J43" s="3">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="K43" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="2">
-        <v>201321</v>
+        <v>201318</v>
       </c>
       <c r="B44" s="15">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C44" s="15">
+        <v>11</v>
+      </c>
+      <c r="D44" s="15">
         <v>1</v>
       </c>
-      <c r="D44" s="15">
-        <v>0</v>
-      </c>
       <c r="E44" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F44" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G44" s="15">
+        <v>27</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>1</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
       <c r="J44" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="2">
-        <v>201322</v>
+        <v>201319</v>
       </c>
       <c r="B45" s="15">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C45" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D45" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E45" s="15">
+        <v>3</v>
+      </c>
+      <c r="F45" s="15">
         <v>8</v>
       </c>
-      <c r="F45" s="15">
-        <v>26</v>
-      </c>
       <c r="G45" s="15">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J45" s="3">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="K45" s="3">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="2">
-        <v>201323</v>
+        <v>201320</v>
       </c>
       <c r="B46" s="15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C46" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D46" s="15">
         <v>0</v>
       </c>
       <c r="E46" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G46" s="15">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="2">
-        <v>201324</v>
+        <v>201321</v>
       </c>
       <c r="B47" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C47" s="15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D47" s="15">
         <v>0</v>
       </c>
       <c r="E47" s="15">
+        <v>0</v>
+      </c>
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>3</v>
-      </c>
-      <c r="F47" s="15">
-        <v>4</v>
-      </c>
-      <c r="G47" s="15">
-        <v>19</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3">
-        <v>7</v>
-      </c>
-      <c r="K47" s="3">
-        <v>10</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="2">
-        <v>201325</v>
+        <v>201322</v>
       </c>
       <c r="B48" s="15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C48" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D48" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F48" s="15">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G48" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="2">
-        <v>201326</v>
+        <v>201323</v>
       </c>
       <c r="B49" s="15">
         <v>0</v>
       </c>
       <c r="C49" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D49" s="15">
         <v>0</v>
       </c>
       <c r="E49" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15">
         <v>1</v>
       </c>
-      <c r="G49" s="15">
-        <v>4</v>
-      </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>1</v>
-      </c>
-      <c r="J49" s="3">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="2">
-        <v>201327</v>
+        <v>201324</v>
       </c>
       <c r="B50" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C50" s="15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D50" s="15">
         <v>0</v>
       </c>
       <c r="E50" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F50" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G50" s="15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
       </c>
       <c r="I50" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J50" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K50" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L50" s="3">
         <v>0</v>
       </c>
       <c r="M50" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="2">
-        <v>201328</v>
+        <v>201325</v>
       </c>
       <c r="B51" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="15">
         <v>0</v>
@@ -5867,19 +5773,19 @@
         <v>0</v>
       </c>
       <c r="F51" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
       </c>
       <c r="I51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="3">
         <v>0</v>
@@ -5888,98 +5794,98 @@
         <v>0</v>
       </c>
       <c r="M51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="2">
-        <v>201329</v>
+        <v>201326</v>
       </c>
       <c r="B52" s="15">
         <v>0</v>
       </c>
       <c r="C52" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52" s="15">
         <v>0</v>
       </c>
       <c r="E52" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F52" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="2">
-        <v>201330</v>
+        <v>201327</v>
       </c>
       <c r="B53" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C53" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D53" s="15">
         <v>0</v>
       </c>
       <c r="E53" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F53" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G53" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
       </c>
       <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2">
+        <v>201328</v>
+      </c>
+      <c r="B54" s="15">
         <v>1</v>
       </c>
-      <c r="J53" s="3">
-        <v>5</v>
-      </c>
-      <c r="K53" s="3">
-        <v>10</v>
-      </c>
-      <c r="L53" s="3">
-        <v>0</v>
-      </c>
-      <c r="M53" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="4">
-        <v>201331</v>
-      </c>
-      <c r="B54" s="15">
-        <v>0</v>
-      </c>
       <c r="C54" s="15">
         <v>0</v>
       </c>
@@ -5990,19 +5896,19 @@
         <v>0</v>
       </c>
       <c r="F54" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -6011,15 +5917,15 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="2">
-        <v>201332</v>
+        <v>201329</v>
       </c>
       <c r="B55" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" s="15">
         <v>0</v>
@@ -6046,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="3">
         <v>0</v>
@@ -6057,124 +5963,247 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="2">
+        <v>201330</v>
+      </c>
+      <c r="B56" s="15">
+        <v>4</v>
+      </c>
+      <c r="C56" s="15">
+        <v>3</v>
+      </c>
+      <c r="D56" s="15">
+        <v>0</v>
+      </c>
+      <c r="E56" s="15">
+        <v>4</v>
+      </c>
+      <c r="F56" s="15">
+        <v>4</v>
+      </c>
+      <c r="G56" s="15">
+        <v>5</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3">
+        <v>5</v>
+      </c>
+      <c r="K56" s="3">
+        <v>10</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="4">
+        <v>201331</v>
+      </c>
+      <c r="B57" s="15">
+        <v>0</v>
+      </c>
+      <c r="C57" s="15">
+        <v>0</v>
+      </c>
+      <c r="D57" s="15">
+        <v>0</v>
+      </c>
+      <c r="E57" s="15">
+        <v>0</v>
+      </c>
+      <c r="F57" s="15">
+        <v>0</v>
+      </c>
+      <c r="G57" s="15">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="2">
+        <v>201332</v>
+      </c>
+      <c r="B58" s="15">
+        <v>1</v>
+      </c>
+      <c r="C58" s="15">
+        <v>0</v>
+      </c>
+      <c r="D58" s="15">
+        <v>0</v>
+      </c>
+      <c r="E58" s="15">
+        <v>0</v>
+      </c>
+      <c r="F58" s="15">
+        <v>0</v>
+      </c>
+      <c r="G58" s="15">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="2">
         <v>201333</v>
       </c>
-      <c r="B56" s="15">
-        <v>0</v>
-      </c>
-      <c r="C56" s="15">
-        <v>0</v>
-      </c>
-      <c r="D56" s="15">
-        <v>0</v>
-      </c>
-      <c r="E56" s="15">
-        <v>0</v>
-      </c>
-      <c r="F56" s="15">
-        <v>0</v>
-      </c>
-      <c r="G56" s="15">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="I56" s="3">
-        <v>0</v>
-      </c>
-      <c r="J56" s="3">
-        <v>0</v>
-      </c>
-      <c r="K56" s="3">
-        <v>0</v>
-      </c>
-      <c r="L56" s="3">
-        <v>0</v>
-      </c>
-      <c r="M56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="2">
+      <c r="B59" s="15">
+        <v>0</v>
+      </c>
+      <c r="C59" s="15">
+        <v>0</v>
+      </c>
+      <c r="D59" s="15">
+        <v>0</v>
+      </c>
+      <c r="E59" s="15">
+        <v>0</v>
+      </c>
+      <c r="F59" s="15">
+        <v>0</v>
+      </c>
+      <c r="G59" s="15">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="2">
         <v>201334</v>
       </c>
-      <c r="B57" s="15">
-        <v>0</v>
-      </c>
-      <c r="C57" s="15">
-        <v>0</v>
-      </c>
-      <c r="D57" s="15">
-        <v>0</v>
-      </c>
-      <c r="E57" s="15">
-        <v>0</v>
-      </c>
-      <c r="F57" s="15">
-        <v>0</v>
-      </c>
-      <c r="G57" s="15">
+      <c r="B60" s="15">
+        <v>0</v>
+      </c>
+      <c r="C60" s="15">
+        <v>0</v>
+      </c>
+      <c r="D60" s="15">
+        <v>0</v>
+      </c>
+      <c r="E60" s="15">
+        <v>0</v>
+      </c>
+      <c r="F60" s="15">
+        <v>0</v>
+      </c>
+      <c r="G60" s="15">
         <v>2</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>1</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J60" s="3">
         <v>1</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="2" t="s">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="15">
-        <v>0</v>
-      </c>
-      <c r="C58" s="15">
-        <v>0</v>
-      </c>
-      <c r="D58" s="15">
+      <c r="B61" s="15">
+        <v>0</v>
+      </c>
+      <c r="C61" s="15">
+        <v>0</v>
+      </c>
+      <c r="D61" s="15">
         <v>3</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E61" s="15">
         <v>5</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F61" s="15">
         <v>4</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G61" s="15">
         <v>14</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>23</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>3</v>
       </c>
     </row>
